--- a/biology/Zoologie/Aceria_anthocoptes/Aceria_anthocoptes.xlsx
+++ b/biology/Zoologie/Aceria_anthocoptes/Aceria_anthocoptes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aceria anthocoptes est une espèce d'acariens de la famille des Eriophyidae et du genre Aceria. Il provoque des galles sur les feuilles de Cirsium arvense, Cirsium vulgare et Scorzoneroides autumnalis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aceria anthocoptes est une espèce d'acariens de la famille des Eriophyidae et du genre Aceria. Il provoque des galles sur les feuilles de Cirsium arvense, Cirsium vulgare et Scorzoneroides autumnalis.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aceria anthocoptes vagabonde sur les feuilles qu'il parasite. Elles deviennent défigurées, aux bords plus ou moins largement enroulés vers le haut, parfois anormalement poilus ou brunis. Les capitules sont nains, le réceptacle gonflé, charnu ; les fleurons sont verdâtres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aceria anthocoptes vagabonde sur les feuilles qu'il parasite. Elles deviennent défigurées, aux bords plus ou moins largement enroulés vers le haut, parfois anormalement poilus ou brunis. Les capitules sont nains, le réceptacle gonflé, charnu ; les fleurons sont verdâtres.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce endémique d'Europe[2], présente en Autriche, en Bulgarie, en Croatie, au Danemark, en Finlande, en France métropolitaine, en Hongrie, en Italie, en Pologne, en Suède et en ex-Yougoslavie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce endémique d'Europe, présente en Autriche, en Bulgarie, en Croatie, au Danemark, en Finlande, en France métropolitaine, en Hongrie, en Italie, en Pologne, en Suède et en ex-Yougoslavie.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Aceria anthocoptes (Nalepa, 1892)[2].
-L'espèce a été initialement classée dans le genre Phytoptus sous le protonyme Phytoptus anthocoptes Nalepa, 1892[2].
-Aceria anthocoptes a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Aceria anthocoptes (Nalepa, 1892).
+L'espèce a été initialement classée dans le genre Phytoptus sous le protonyme Phytoptus anthocoptes Nalepa, 1892.
+Aceria anthocoptes a pour synonymes :
 Aceria leontodontis Liro, 1904
 Eriophyes leontodontis Lindroth, 1904
 Phyllocoptes leontodontis (Liro, 1904)
